--- a/数据整理/stocks/A股/科创板/688733-壹石通.xlsx
+++ b/数据整理/stocks/A股/科创板/688733-壹石通.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,13 +977,443 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688733-壹石通.xlsx
+++ b/数据整理/stocks/A股/科创板/688733-壹石通.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1360,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1371,17 +1372,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1391,14 +1412,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5</v>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4965</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1407,13 +1450,763 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3786</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688733-壹石通.xlsx
+++ b/数据整理/stocks/A股/科创板/688733-壹石通.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2137,7 +2138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2148,17 +2149,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2168,14 +2189,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2184,14 +2227,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2200,13 +2265,931 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012799</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014948</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012716</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688733-壹石通.xlsx
+++ b/数据整理/stocks/A股/科创板/688733-壹石通.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,471 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006243</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中银双息回报混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>61.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1323</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002430</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中银丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1210</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001370</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中银新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>28.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0848</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+      <c r="D4" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002616</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中银益利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>22.66</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0831</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003850</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中银锦利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.90</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0743</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003851</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银锦利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20.90</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002431</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中银丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>21.59</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>163818</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005728</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华宝绿色主题混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>76.56</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002617</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中银益利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>22.66</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009843</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中金泰顺12个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>24.52</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -928,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000534</t>
+          <t>010885</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛高端装备制造灵活配置混合</t>
+          <t>长盛优势企业精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>78.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1188</t>
+          <t>0.3903</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1017,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001370</t>
+          <t>001471</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银新趋势灵活配置混合</t>
+          <t>融通新能源灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22.43</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1047</t>
+          <t>0.2601</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1055,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006279</t>
+          <t>000534</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中金瑞祥灵活配置混合A</t>
+          <t>长盛高端装备制造灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>62.54</t>
+          <t>78.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1026</t>
+          <t>0.1664</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1093,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000598</t>
+          <t>008878</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长盛生态环境主题灵活配置混合</t>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.85</t>
+          <t>95.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0600</t>
+          <t>0.1469</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1131,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002156</t>
+          <t>005396</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长盛盛世灵活配置混合A</t>
+          <t>中金丰硕混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30.78</t>
+          <t>81.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0481</t>
+          <t>0.1347</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1169,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>080002</t>
+          <t>005977</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛创新先锋混合</t>
+          <t>中信保诚至兴灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.22</t>
+          <t>91.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0343</t>
+          <t>0.0769</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1207,32 +833,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005728</t>
+          <t>000598</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝绿色主题混合</t>
+          <t>长盛生态环境主题灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.15</t>
+          <t>82.09</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0252</t>
+          <t>0.0752</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1245,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002157</t>
+          <t>001173</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长盛盛世灵活配置混合C</t>
+          <t>中欧瑾和灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30.78</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0660</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1283,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006025</t>
+          <t>007305</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安优化配置混合</t>
+          <t>国联安新科技混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>67.41</t>
+          <t>89.67</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0588</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1321,34 +947,566 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006280</t>
+          <t>002156</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中金瑞祥灵活配置混合C</t>
+          <t>长盛盛世灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012799</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014948</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012716</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>62.54</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="n">
-        <v>9</v>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2138,7 +2296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2189,36 +2347,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010885</t>
+          <t>000534</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛优势企业精选混合A</t>
+          <t>长盛高端装备制造灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.83</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3903</t>
+          <t>0.1188</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2227,36 +2385,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001471</t>
+          <t>001370</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通新能源灵活配置混合</t>
+          <t>中银新趋势灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>22.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2601</t>
+          <t>0.1047</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2265,36 +2423,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000534</t>
+          <t>006279</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长盛高端装备制造灵活配置混合</t>
+          <t>中金瑞祥灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.07</t>
+          <t>62.54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1664</t>
+          <t>0.1026</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2303,36 +2461,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008878</t>
+          <t>000598</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国联安新蓝筹红利一年定期开放混合</t>
+          <t>长盛生态环境主题灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.49</t>
+          <t>89.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1469</t>
+          <t>0.0600</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2341,36 +2499,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005396</t>
+          <t>002156</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中金丰硕混合</t>
+          <t>长盛盛世灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.21</t>
+          <t>30.78</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1347</t>
+          <t>0.0481</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2379,36 +2537,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005977</t>
+          <t>080002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信保诚至兴灵活配置混合A</t>
+          <t>长盛创新先锋混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.66</t>
+          <t>79.22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0769</t>
+          <t>0.0343</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2417,32 +2575,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000598</t>
+          <t>005728</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长盛生态环境主题灵活配置混合</t>
+          <t>华宝绿色主题混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.09</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0752</t>
+          <t>0.0252</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2455,36 +2613,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001173</t>
+          <t>002157</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧瑾和灵活配置混合 - A</t>
+          <t>长盛盛世灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>30.78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0660</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2493,36 +2651,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007305</t>
+          <t>006025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国联安新科技混合</t>
+          <t>诺安优化配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0588</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2531,566 +2689,34 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002156</t>
+          <t>006280</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长盛盛世灵活配置混合A</t>
+          <t>中金瑞祥灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>33.67</t>
+          <t>62.54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0510</t>
-        </is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>080002</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长盛创新先锋混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>79.13</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0457</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004332</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>恒生前海沪港深新兴产业精选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0305</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010886</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>长盛优势企业精选混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>78.83</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0249</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005978</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0217</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005728</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华宝绿色主题混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>620004</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>金元顺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>86.70</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001174</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中欧瑾和灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002157</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>长盛盛世灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>33.67</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005067</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>融通逆向策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>87.91</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009270</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>融通逆向策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>87.91</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>012799</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华宝绿色主题混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006084</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>融通研究优选混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.69</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>014948</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>融通新能源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>012716</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>长盛创新先锋混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>79.13</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3104,96 +2730,470 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.6</v>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.59</v>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009843</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金泰顺12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688733-壹石通.xlsx
+++ b/数据整理/stocks/A股/科创板/688733-壹石通.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>1.6</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -549,6 +566,1126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4241</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3714</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014885</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>48.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014886</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>48.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012716</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1514,7 +2651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2290,7 +3427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2724,7 +3861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
